--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_1times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_1times.xlsx
@@ -4,21 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>QUERY</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,24 +350,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
+      <c r="A1" t="e">
         <f ca="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_1_local")</f>
         <v>#NAME?</v>
       </c>

--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_1times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_10set_1times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="e">
-        <f ca="1">QUERY("ShuffledDataSet10","ShuffledDataSet10_1_local")</f>
+        <f ca="1">INDEX(QUERY("ShuffledDataSet10","ShuffledDataSet10_1_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
